--- a/temp.xlsx
+++ b/temp.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,21 +437,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1141289.279999999</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44074</v>
+        <v>50.42000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>880300.2249199193</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44104</v>
+        <v>33.78824554101188</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>963824.3012336773</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44135</v>
+        <v>45.16366543782817</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480574.3301660179</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44165</v>
+        <v>43.26974548687394</v>
       </c>
     </row>
     <row r="6">
@@ -496,10 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1801538.047154519</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44196</v>
+        <v>109.6721947526603</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>790905.4757027897</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44227</v>
+        <v>22.12506038183743</v>
       </c>
     </row>
     <row r="8">
@@ -518,10 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1070745.358727906</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44255</v>
+        <v>39.46569725117125</v>
       </c>
     </row>
     <row r="9">
@@ -529,10 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953515.8179265668</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44286</v>
+        <v>38.47368151218205</v>
       </c>
     </row>
     <row r="10">
@@ -540,10 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1000289.219062547</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44316</v>
+        <v>48.99468482099066</v>
       </c>
     </row>
     <row r="11">
@@ -551,10 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1019910.987189814</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44347</v>
+        <v>51.429767907416</v>
       </c>
     </row>
     <row r="12">
@@ -562,10 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1221055.939369348</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44377</v>
+        <v>49.24744898202277</v>
       </c>
     </row>
     <row r="13">
@@ -573,10 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1134259.400532103</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44408</v>
+        <v>55.73142606567971</v>
       </c>
     </row>
     <row r="14">
@@ -584,10 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1080972.380667071</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44439</v>
+        <v>55.73308348945788</v>
       </c>
     </row>
     <row r="15">
@@ -595,10 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758627.4474882135</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44469</v>
+        <v>37.28952253610129</v>
       </c>
     </row>
     <row r="16">
@@ -606,10 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>909775.3608979305</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44500</v>
+        <v>50.43184151361316</v>
       </c>
     </row>
     <row r="17">
@@ -617,10 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>920766.6985526107</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>44530</v>
+        <v>48.52922316874854</v>
       </c>
     </row>
     <row r="18">
@@ -628,10 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1680302.513143327</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>44561</v>
+        <v>123.8836036145237</v>
       </c>
     </row>
     <row r="19">
@@ -639,10 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>979808.3847978179</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>44592</v>
+        <v>25.25612316684619</v>
       </c>
     </row>
     <row r="20">
@@ -650,10 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1255052.437362239</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>44620</v>
+        <v>45.2890977412363</v>
       </c>
     </row>
     <row r="21">
@@ -661,10 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1000978.271570893</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>44651</v>
+        <v>44.4606738770233</v>
       </c>
     </row>
     <row r="22">
@@ -672,10 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1023709.668448978</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>44681</v>
+        <v>56.9904442074365</v>
       </c>
     </row>
     <row r="23">
@@ -683,10 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1045957.937041963</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>44712</v>
+        <v>60.23832317306663</v>
       </c>
     </row>
     <row r="24">
@@ -694,10 +619,119 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1344556.649602214</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>44742</v>
+        <v>58.10471627566782</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>66.19969216293218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>66.67532316272683</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>44.99558343380126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>61.21783978847058</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>59.33768152232114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>152.2068190688255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>31.43755590470071</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>56.58925786041267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>55.95654848659277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>72.16601061196533</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>76.80747326779701</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>74.62498044957779</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>85.58756358897537</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>86.8139842615504</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,304 +441,183 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="2" t="n">
+        <v>43616</v>
       </c>
       <c r="B2" t="n">
-        <v>50.42000000000001</v>
+        <v>41.82800000000005</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>43616</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="2" t="n">
+        <v>43646</v>
       </c>
       <c r="B3" t="n">
-        <v>33.78824554101188</v>
+        <v>44.6609269927755</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>43646</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="2" t="n">
+        <v>43677</v>
       </c>
       <c r="B4" t="n">
-        <v>45.16366543782817</v>
+        <v>42.43468710088396</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>43677</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="2" t="n">
+        <v>43708</v>
       </c>
       <c r="B5" t="n">
-        <v>43.26974548687394</v>
+        <v>40.02705323320867</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>43708</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="2" t="n">
+        <v>43738</v>
       </c>
       <c r="B6" t="n">
-        <v>109.6721947526603</v>
+        <v>54.18166915723476</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>43738</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="2" t="n">
+        <v>43769</v>
       </c>
       <c r="B7" t="n">
-        <v>22.12506038183743</v>
+        <v>67.51009417817657</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>43769</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="2" t="n">
+        <v>43799</v>
       </c>
       <c r="B8" t="n">
-        <v>39.46569725117125</v>
+        <v>54.66218505870686</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>43799</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="B9" t="n">
-        <v>38.47368151218205</v>
+        <v>118.2380311251675</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>43830</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="2" t="n">
+        <v>43861</v>
       </c>
       <c r="B10" t="n">
-        <v>48.99468482099066</v>
+        <v>90.20250414307779</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>43861</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="2" t="n">
+        <v>43890</v>
       </c>
       <c r="B11" t="n">
-        <v>51.429767907416</v>
+        <v>72.21498409364344</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>43890</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="2" t="n">
+        <v>43921</v>
       </c>
       <c r="B12" t="n">
-        <v>49.24744898202277</v>
+        <v>76.10617462094611</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>43921</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="2" t="n">
+        <v>43951</v>
       </c>
       <c r="B13" t="n">
-        <v>55.73142606567971</v>
+        <v>94.51583596537903</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>43951</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B14" t="n">
-        <v>55.73308348945788</v>
+        <v>94.35678721542105</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>43982</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="B15" t="n">
-        <v>37.28952253610129</v>
+        <v>90.0113166369992</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>44012</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="2" t="n">
+        <v>44043</v>
       </c>
       <c r="B16" t="n">
-        <v>50.43184151361316</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>48.52922316874854</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>123.8836036145237</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>25.25612316684619</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>45.2890977412363</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>44.4606738770233</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>56.9904442074365</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>60.23832317306663</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>58.10471627566782</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>66.19969216293218</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>66.67532316272683</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>44.99558343380126</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>61.21783978847058</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>59.33768152232114</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>152.2068190688255</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>31.43755590470071</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>56.58925786041267</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>55.95654848659277</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>72.16601061196533</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>76.80747326779701</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>74.62498044957779</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>85.58756358897537</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>86.8139842615504</v>
+        <v>90.0113166369992</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>44043</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,15 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,183 +434,288 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43616</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41.82800000000005</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>43616</v>
+        <v>4941288.000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43646</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44.6609269927755</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>43646</v>
+        <v>4175439.372706961</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43677</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42.43468710088396</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>43677</v>
+        <v>4601033.935331249</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43708</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.02705323320867</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>43708</v>
+        <v>8060520.714188891</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43738</v>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54.18166915723476</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>43738</v>
+        <v>5117943.797287667</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43769</v>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.51009417817657</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>43769</v>
+        <v>18021297.21770741</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43799</v>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54.66218505870686</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>43799</v>
+        <v>15477089.45604037</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43830</v>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>118.2380311251675</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>43830</v>
+        <v>16692380.57773807</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43861</v>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90.20250414307779</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>43861</v>
+        <v>9887940.868325023</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43890</v>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>72.21498409364344</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>43890</v>
+        <v>11944183.49281338</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43921</v>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76.10617462094611</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>43921</v>
+        <v>11205230.08001873</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>43951</v>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>94.51583596537903</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>43951</v>
+        <v>10271319.73126584</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>43982</v>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>94.35678721542105</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>43982</v>
+        <v>3885265.743606116</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44012</v>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>90.0113166369992</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>44012</v>
+        <v>3780997.407832432</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44043</v>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>90.0113166369992</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>44043</v>
+        <v>6139416.397098849</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7838119.497907592</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12056680.27181392</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9163772.460655384</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7871627.356589704</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6331208.749254345</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7464191.430985084</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9333040.574949631</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10813136.96897998</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7482259.319040489</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3178989.933993753</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2681052.918577157</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4287484.152509429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7323282.393798107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10765329.52844099</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7632362.18577872</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8622206.37754746</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6789431.111100951</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5581028.639043213</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9948063.407366905</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9046832.031794785</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,288 +440,253 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="2" t="n">
+        <v>44469</v>
       </c>
       <c r="B2" t="n">
-        <v>4941288.000000001</v>
+        <v>12188776.70150927</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="2" t="n">
+        <v>44500</v>
       </c>
       <c r="B3" t="n">
-        <v>4175439.372706961</v>
+        <v>11724277.38243084</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="2" t="n">
+        <v>44530</v>
       </c>
       <c r="B4" t="n">
-        <v>4601033.935331249</v>
+        <v>9025621.274350997</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="B5" t="n">
-        <v>8060520.714188891</v>
+        <v>5003090.938832278</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="B6" t="n">
-        <v>5117943.797287667</v>
+        <v>8584968.065475486</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="B7" t="n">
-        <v>18021297.21770741</v>
+        <v>12898761.6723452</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="2" t="n">
+        <v>44651</v>
       </c>
       <c r="B8" t="n">
-        <v>15477089.45604037</v>
+        <v>11130514.28890234</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="2" t="n">
+        <v>44681</v>
       </c>
       <c r="B9" t="n">
-        <v>16692380.57773807</v>
+        <v>11681998.36239382</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="2" t="n">
+        <v>44712</v>
       </c>
       <c r="B10" t="n">
-        <v>9887940.868325023</v>
+        <v>11745585.34831456</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="2" t="n">
+        <v>44742</v>
       </c>
       <c r="B11" t="n">
-        <v>11944183.49281338</v>
+        <v>9555846.685518615</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="2" t="n">
+        <v>44773</v>
       </c>
       <c r="B12" t="n">
-        <v>11205230.08001873</v>
+        <v>11240060.28028181</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="2" t="n">
+        <v>44804</v>
       </c>
       <c r="B13" t="n">
-        <v>10271319.73126584</v>
+        <v>10885171.24226453</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="2" t="n">
+        <v>44834</v>
       </c>
       <c r="B14" t="n">
-        <v>3885265.743606116</v>
+        <v>10876671.18106607</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="B15" t="n">
-        <v>3780997.407832432</v>
+        <v>8485004.728014629</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="2" t="n">
+        <v>44895</v>
       </c>
       <c r="B16" t="n">
-        <v>6139416.397098849</v>
+        <v>8258994.324010673</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="B17" t="n">
-        <v>7838119.497907592</v>
+        <v>8026484.211044325</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="2" t="n">
+        <v>44957</v>
       </c>
       <c r="B18" t="n">
-        <v>12056680.27181392</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>9163772.460655384</v>
+        <v>10740682.43222817</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="2" t="n">
+        <v>45016</v>
       </c>
       <c r="B20" t="n">
-        <v>7871627.356589704</v>
+        <v>11547312.67467403</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="2" t="n">
+        <v>45046</v>
       </c>
       <c r="B21" t="n">
-        <v>6331208.749254345</v>
+        <v>12410636.85354415</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="2" t="n">
+        <v>45077</v>
       </c>
       <c r="B22" t="n">
-        <v>7464191.430985084</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="2" t="n">
+        <v>45107</v>
       </c>
       <c r="B23" t="n">
-        <v>9333040.574949631</v>
+        <v>10730607.19703363</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="2" t="n">
+        <v>45138</v>
       </c>
       <c r="B24" t="n">
-        <v>10813136.96897998</v>
+        <v>10240910.46625348</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" s="2" t="n">
+        <v>45169</v>
       </c>
       <c r="B25" t="n">
-        <v>7482259.319040489</v>
+        <v>10629079.58620866</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B26" t="n">
-        <v>3178989.933993753</v>
+        <v>10289767.15026433</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" s="2" t="n">
+        <v>45230</v>
       </c>
       <c r="B27" t="n">
-        <v>2681052.918577157</v>
+        <v>10168338.66548177</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="2" t="n">
+        <v>45260</v>
       </c>
       <c r="B28" t="n">
-        <v>4287484.152509429</v>
+        <v>9427788.969315067</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="2" t="n">
+        <v>45291</v>
       </c>
       <c r="B29" t="n">
-        <v>7323282.393798107</v>
+        <v>8189343.151501165</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="2" t="n">
+        <v>45322</v>
       </c>
       <c r="B30" t="n">
-        <v>10765329.52844099</v>
+        <v>9300648.901413083</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="2" t="n">
+        <v>45351</v>
       </c>
       <c r="B31" t="n">
-        <v>7632362.18577872</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>8622206.37754746</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6789431.111100951</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5581028.639043213</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>9948063.407366905</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>9046832.031794785</v>
+        <v>10472249.56992586</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,253 +434,384 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44469</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12188776.70150927</v>
+        <v>261.3120000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44500</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11724277.38243084</v>
+        <v>271.656142012466</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44530</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9025621.274350997</v>
+        <v>221.9695183408225</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44561</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5003090.938832278</v>
+        <v>264.8539137641878</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44592</v>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8584968.065475486</v>
+        <v>206.586033510312</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44620</v>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12898761.6723452</v>
+        <v>524.8304077504492</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44651</v>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11130514.28890234</v>
+        <v>357.4935781304098</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44681</v>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11681998.36239382</v>
+        <v>309.2405227411933</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44712</v>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11745585.34831456</v>
+        <v>286.2333853298337</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44742</v>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9555846.685518615</v>
+        <v>283.7585116273829</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44773</v>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11240060.28028181</v>
+        <v>329.7200751458426</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44804</v>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10885171.24226453</v>
+        <v>280.2213513677153</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44834</v>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10876671.18106607</v>
+        <v>253.0364440123827</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44865</v>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8485004.728014629</v>
+        <v>295.1344992600912</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44895</v>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8258994.324010673</v>
+        <v>235.1528765484875</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44926</v>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8026484.211044325</v>
+        <v>243.4041338603092</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44957</v>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>120000</v>
+        <v>258.4812379311491</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44985</v>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10740682.43222817</v>
+        <v>501.3247959741761</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45016</v>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11547312.67467403</v>
+        <v>248.299591073437</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45046</v>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12410636.85354415</v>
+        <v>257.4999449249037</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45077</v>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15000000</v>
+        <v>246.9382467039788</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45107</v>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10730607.19703363</v>
+        <v>248.800726301023</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45138</v>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10240910.46625348</v>
+        <v>267.0170327088442</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45169</v>
+      <c r="A25" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10629079.58620866</v>
+        <v>258.2749629627303</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45199</v>
+      <c r="A26" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10289767.15026433</v>
+        <v>273.4807486334669</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45230</v>
+      <c r="A27" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10168338.66548177</v>
+        <v>283.7872185420263</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45260</v>
+      <c r="A28" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9427788.969315067</v>
+        <v>185.3627490894721</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45291</v>
+      <c r="A29" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8189343.151501165</v>
+        <v>237.9272224163808</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45322</v>
+      <c r="A30" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9300648.901413083</v>
+        <v>188.5352370122328</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45351</v>
+      <c r="A31" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10472249.56992586</v>
+        <v>617.4313439610091</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>173.11851822216</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>214.6148579980913</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>204.3615950698348</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>215.492299966454</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>229.0481927580569</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>226.8799055722073</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>283.4085434903749</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>293.8207858517059</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>250.0644537582005</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>226.23257028666</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>106.0238530355444</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>156.3132019809475</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>152.3746955017005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>173.3875048740692</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>194.1937617461644</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>206.1562357299592</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>225.6267113388114</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>271.656142012466</v>
+        <v>259.4796527101973</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>221.9695183408225</v>
+        <v>236.0153406165462</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>264.8539137641878</v>
+        <v>263.4091568855688</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>206.586033510312</v>
+        <v>227.028311402456</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>524.8304077504492</v>
+        <v>447.5885573768527</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357.4935781304098</v>
+        <v>314.2923690228249</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>309.2405227411933</v>
+        <v>301.3829357142736</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>286.2333853298337</v>
+        <v>290.3687182619947</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>283.7585116273829</v>
+        <v>278.2837168757188</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>329.7200751458426</v>
+        <v>310.7749978246798</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>280.2213513677153</v>
+        <v>276.1456764835199</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>253.0364440123827</v>
+        <v>270.4355526912779</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295.1344992600912</v>
+        <v>284.413321119848</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>235.1528765484875</v>
+        <v>245.1492382568118</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>243.4041338603092</v>
+        <v>252.8535451806679</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>258.4812379311491</v>
+        <v>255.7390526473234</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>501.3247959741761</v>
+        <v>433.1673099823939</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>248.299591073437</v>
+        <v>252.5448711438058</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>257.4999449249037</v>
+        <v>261.1920621304471</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>246.9382467039788</v>
+        <v>245.8671209494335</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>248.800726301023</v>
+        <v>251.4724943576558</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>267.0170327088442</v>
+        <v>260.0961509137098</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>258.2749629627303</v>
+        <v>251.9188258089153</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>273.4807486334669</v>
+        <v>256.8079270843643</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>283.7872185420263</v>
+        <v>260.8136374526063</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>185.3627490894721</v>
+        <v>198.5281681149758</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>237.9272224163808</v>
+        <v>229.9797479407996</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>188.5352370122328</v>
+        <v>193.8229116213087</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>617.4313439610091</v>
+        <v>447.3927033945209</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>173.11851822216</v>
+        <v>172.7656971083404</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>214.6148579980913</v>
+        <v>197.9605403591187</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>204.3615950698348</v>
+        <v>185.2442550574985</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>215.492299966454</v>
+        <v>197.8369561429001</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>229.0481927580569</v>
+        <v>192.5293898351364</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>226.8799055722073</v>
+        <v>180.1249253582279</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>283.4085434903749</v>
+        <v>201.4530581051212</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>293.8207858517059</v>
+        <v>195.027786603453</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>250.0644537582005</v>
+        <v>171.8881883939507</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>226.23257028666</v>
+        <v>166.8101732408312</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>106.0238530355444</v>
+        <v>88.49604154498118</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>156.3132019809475</v>
+        <v>117.260396144462</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>152.3746955017005</v>
+        <v>62.71893921494041</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>173.3875048740692</v>
+        <v>109.0727550766052</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>194.1937617461644</v>
+        <v>110.3591180236284</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>206.1562357299592</v>
+        <v>113.0829717856284</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,23 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>225.6267113388114</v>
+        <v>146.5933343171066</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>157.0560456763832</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>151.3700277178298</v>
       </c>
     </row>
   </sheetData>
